--- a/DB/Tablas de aprendizaje de movimientos/Magikarp (Todos), Gyarados y Gyarados (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Magikarp (Todos), Gyarados y Gyarados (S).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Magikarp" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Gyarados (S)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gyarados!$A$2:$A$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Gyarados (S)'!$A$2:$A$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gyarados!$A$2:$A$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Gyarados (S)'!$A$2:$A$24</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Gyarados!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">'Gyarados (S)'!#REF!</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>Movimiento</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Tajo umbrío</t>
   </si>
   <si>
-    <t>Esfera aural</t>
-  </si>
-  <si>
     <t>Poder oculto</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Protección</t>
   </si>
   <si>
-    <t>Poder pasado</t>
-  </si>
-  <si>
     <t>Terratemblor</t>
   </si>
   <si>
@@ -154,13 +148,7 @@
     <t>Viento afín</t>
   </si>
   <si>
-    <t>Levitón</t>
-  </si>
-  <si>
-    <t>Velo sagrado</t>
-  </si>
-  <si>
-    <t>Acua aro</t>
+    <t>Rugido de guerra</t>
   </si>
 </sst>
 </file>
@@ -512,17 +500,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -538,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -546,7 +534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -554,7 +542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -570,19 +558,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -598,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -606,7 +594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -614,7 +602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -622,7 +610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -630,7 +618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -638,7 +626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -646,7 +634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -654,7 +642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -662,135 +650,124 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -801,19 +778,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="A30:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,95 +798,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -917,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -925,7 +902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -933,116 +910,76 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DB/Tablas de aprendizaje de movimientos/Magikarp (Todos), Gyarados y Gyarados (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Magikarp (Todos), Gyarados y Gyarados (S).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
